--- a/Check.xlsx
+++ b/Check.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvik\Desktop\Diplom_Netology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EE6D75-23FF-48FE-B40A-9A2FDE732BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4433CAD9-048F-4F2C-9B7B-7C4EF96A748E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="83">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Приоритет</t>
   </si>
   <si>
-    <t>Оставить поля пустыми</t>
-  </si>
-  <si>
     <t>Высокий</t>
   </si>
   <si>
@@ -63,121 +60,240 @@
     <t>Страница "Профиль"</t>
   </si>
   <si>
-    <t>Ввод валидных данных на латинице</t>
-  </si>
-  <si>
-    <t>Ввод невалидных данных на латинице</t>
-  </si>
-  <si>
-    <t>Нажать на значок профиля</t>
-  </si>
-  <si>
-    <t>Нажать "Выйти"</t>
-  </si>
-  <si>
-    <t>Свернуть и развернуть вкладку "Новости" нажатием на стрелочку</t>
-  </si>
-  <si>
-    <t>Свернуть и развернуть каждую новость нажатием на стрелочку или на строку</t>
-  </si>
-  <si>
-    <t>Перейти на страницу "Новости" нажав на надпись "ВСЕ НОВОСТИ"</t>
-  </si>
-  <si>
-    <t>Перейти на страницу с новостями через меню в левом вверхнем углу и выбрать  раздел "Новости"</t>
-  </si>
-  <si>
-    <t>Перейти на главную страницу через меню в левом вверхнем углу и выбрать раздел "Главная"</t>
-  </si>
-  <si>
-    <t>Нажать на кнопку сортировки новостей</t>
-  </si>
-  <si>
-    <t>Нажать на кнопку фильтрации новостей и выбрать нужные фильтры</t>
-  </si>
-  <si>
-    <t>Нажать на кнопку редактирования новостей для перехода на страницу "Панель управления"</t>
-  </si>
-  <si>
     <t>Проверить текстовые поля на граничные значения и классы эквивалентности</t>
   </si>
   <si>
-    <t>Отменить создание новости</t>
-  </si>
-  <si>
     <t>Средний</t>
   </si>
   <si>
-    <t>Нажать на кнопку "Создание новости"</t>
-  </si>
-  <si>
     <t>Страница "Создание новости"</t>
   </si>
   <si>
-    <t>Оставить поля пустыми и нажать сохранить</t>
-  </si>
-  <si>
-    <t>Заполнить все поля и нажать сохранить</t>
-  </si>
-  <si>
-    <t>Заполнить не все поля и нажать сохранить</t>
-  </si>
-  <si>
-    <t>В строке "Дата публикации" выбрать сегодняшнюю дату при помощи календаря</t>
-  </si>
-  <si>
-    <t>В строке "Дата публикации" выбрать сегодняшнюю дату при помощи клавиатуры</t>
-  </si>
-  <si>
-    <t>Выбрать в строке "Дата публикации" сегодняшнюю дату, а в строке "Время" прошедшее время</t>
-  </si>
-  <si>
-    <t>В строке "Дата публикации" выбрать дату 2050 года</t>
-  </si>
-  <si>
-    <t>В строке "Время" выбрать время с помощью клавиатуры</t>
-  </si>
-  <si>
-    <t>В строке "Время" выбрать время с помощью часов</t>
-  </si>
-  <si>
-    <t>Нажать на кнопку редактирования новости, внести изменения и нажать "Сохранить"</t>
-  </si>
-  <si>
-    <t>Нажать на кнопку редактирования новости, внести изменения и нажать "Отмена"</t>
-  </si>
-  <si>
-    <t>Нажать на кнопку удаления новости и удалить</t>
-  </si>
-  <si>
-    <t>Нажать на кнопку удаления новости и отменить удаление</t>
-  </si>
-  <si>
-    <t>Перейти на страницу с тематическими цитатами нажав на бабочку в правом верхнем углу</t>
-  </si>
-  <si>
-    <t>Свернуть и развернуть каждую цитату нажатием на стрелочку или на строку</t>
-  </si>
-  <si>
-    <t>Перейти на страницу через меню в левом вверхнем углу и выбрать  раздел "О приложении"</t>
-  </si>
-  <si>
-    <t>Перейти по ссылке "Политика конфиденциальности"</t>
-  </si>
-  <si>
-    <t>Перейти по ссылке "Пользовательское соглашение"</t>
+    <t>Результат (pass/fail)</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Проверить на кликабельность кнопку "Войти"</t>
+  </si>
+  <si>
+    <t>Проверить навигацию между разделами приложения</t>
+  </si>
+  <si>
+    <t>Проверить корректность отображения форматов дат</t>
+  </si>
+  <si>
+    <t>Проверить корректность отображение элементов на устройствах с различными разрешениями экранов</t>
+  </si>
+  <si>
+    <t>Проверить приложение на орфографические и грамматические ошибки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить корректность заголовков и подзаголовков </t>
+  </si>
+  <si>
+    <t>Проверить наличие информации о версии приложения</t>
+  </si>
+  <si>
+    <t>Проверить наличие информации о производителе</t>
+  </si>
+  <si>
+    <t>Убедиться, что приложение устанавливается и запускается</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Убедиться, что авторизация проходит при вводе валидных данных в поля "Логин" и "Пароль" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Убедиться, что авторизация не проходит при вводе невалидных данных на латинице в поля "Логин" и "Пароль" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Убедиться, что авторизация не проходит при вводе спецсимволов в поля "Логин" и "Пароль" </t>
+  </si>
+  <si>
+    <t>Убедиться, что авторизация не проходит при вводе 1 символа в поле "Логин"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Убедиться, что авторизация не проходит при вводе 1 символа в поле "Пароль" </t>
+  </si>
+  <si>
+    <t>Убедиться, что авторизация не проходит при вводе валидных данных с включенной клавишей "caps lock" в поле "Логин"</t>
+  </si>
+  <si>
+    <t>Убедиться, что авторизация не проходит при вводе валидных данных с включенной клавишей "caps lock" в поле "Пароль"</t>
+  </si>
+  <si>
+    <t>Убедиться, что авторизация не проходит при пустом поле "Логин"</t>
+  </si>
+  <si>
+    <t>Убедиться, что авторизация не проходит при пустом поле "Пароль"</t>
+  </si>
+  <si>
+    <t>Убедиться, что авторизация не проходит при одновременно пустых полях "Логин" и "Пароль"</t>
+  </si>
+  <si>
+    <t>Убедиться, что при нажатии на стрелочку на против заголовка "Новости" на главной странице вкладка с новостями сворачивается</t>
+  </si>
+  <si>
+    <t>Убедиться, что при нажатии на стрелочку на против заголовка "Новости" на главной странице вкладка с новостями разворачивается</t>
+  </si>
+  <si>
+    <t>Убедиться, что на главной странице отображены новости от сегодняшнего числа</t>
+  </si>
+  <si>
+    <t>Убедиться, что при нажатии на стрелочку на против любой новости на главной странице новость разворачивается</t>
+  </si>
+  <si>
+    <t>Убедиться, что при нажатии на любую новость на главной странице новость разворачивается</t>
+  </si>
+  <si>
+    <t>Убедиться, что при нажатии на стрелочку на против любой новости на главной странице новость сворачивается</t>
+  </si>
+  <si>
+    <t>Убедиться, что при нажатии на любую новость на главной странице новость сворачивается</t>
+  </si>
+  <si>
+    <t>Убедиться, что переход на страницу "Новости" происходит при нажатии на надпись "ВСЕ НОВОСТИ"</t>
+  </si>
+  <si>
+    <t>Убедиться, что происходит переход на главную страницу через меню в левом вверхнем углу выбрав раздел "Главная"</t>
+  </si>
+  <si>
+    <t>Убедиться, что происходит переход на страницу с новостями через меню в левом вверхнем углу выбрав раздел "Новости"</t>
+  </si>
+  <si>
+    <t>Проверить работоспособность сортировки новостей нажатием на иконку сортировки</t>
+  </si>
+  <si>
+    <t>Проверить работоспособность фильтрации новостей нажатием на иконку фильтрации новостей и выбрав нужные фильтры</t>
+  </si>
+  <si>
+    <t>Убедиться, что при нажатии на стрелочку на против любой новости на странице "Новости" новость разворачивается</t>
+  </si>
+  <si>
+    <t>Убедиться, что при нажатии на стрелочку на против любой новости на странице "Новости" новость сворачивается</t>
+  </si>
+  <si>
+    <t>Убедиться, что при нажатии на любую новость на странице "Новости" новость разворачивается</t>
+  </si>
+  <si>
+    <t>Убедиться, что при нажатии на любую новость на странице "Новости" новость сворачивается</t>
+  </si>
+  <si>
+    <t>Убедиться, что происходит переход на страницу "Панель управления" нажав на иконку редактирования новостей</t>
+  </si>
+  <si>
+    <t>Проверить работоспособность скрола вниз/вверх на странице новостей</t>
+  </si>
+  <si>
+    <t>Проверить работоспособность скрола вниз/вверх на странице "Панель управления"</t>
+  </si>
+  <si>
+    <t>Проверить работоспособность отмены фильтрации</t>
+  </si>
+  <si>
+    <t>Убедиться, что при нажатии на стрелочку на против любой новости на странице "Панель управления" новость разворачивается</t>
+  </si>
+  <si>
+    <t>Убедиться, что при нажатии на стрелочку на против любой новости на странице "Панель управления" новость сворачивается</t>
+  </si>
+  <si>
+    <t>Убедиться, что при нажатии на любую новость на странице "Панель управления" новость разворачивается</t>
+  </si>
+  <si>
+    <t>Убедиться, что при нажатии на любую новость на странице "Панель управления" новость сворачивается</t>
+  </si>
+  <si>
+    <t>Убедиться, что новость редактируется нажав на кнопку редактирования новости, внеся изменения и нажав "Сохранить"</t>
+  </si>
+  <si>
+    <t>Убедиться, что новость не редактируется нажав на кнопку редактирования новости, внеся изменения и нажав "Отмена"</t>
+  </si>
+  <si>
+    <t>Убедиться, что новость удаляется нажав на кнопку удаления новости и выбрав "ОК"</t>
+  </si>
+  <si>
+    <t>Убедиться, что новость не удаляется нажав на кнопку удаления новости и выбрав "ОТМЕНА"</t>
+  </si>
+  <si>
+    <t>Убедиться, что открывается окно создания новости при нажатии на кнопку "Создание новости"</t>
+  </si>
+  <si>
+    <t>Убедиться, что новость не сохраняется оставив поля пустыми и нажав "Сохранить" на странице создания новости</t>
+  </si>
+  <si>
+    <t>Убедиться, что новость сохраняется заполнив все поля и нажав "Сохранить" на странице создания новости</t>
+  </si>
+  <si>
+    <t>Убедиться, что новость не сохраняется заполнив не все поля и нажав "Сохранить" на странице создания новости</t>
+  </si>
+  <si>
+    <t>Убедиться, что отменяется создание новости</t>
+  </si>
+  <si>
+    <t>Проверить, что в строке "Дата публикации" на странице создания новости дату можно выбрать с помощью календаря</t>
+  </si>
+  <si>
+    <t>Проверить, что в строке "Дата публикации" на странице создания новости дату можно выбрать с помощью клавиатуры</t>
+  </si>
+  <si>
+    <t>Проверить, что в строке "Время" на странице создания новости время можно выбрать с помощью клавиатуры</t>
+  </si>
+  <si>
+    <t>Проверить, что в строке "Время" на странице создания новости время можно выбрать с помощью часов</t>
+  </si>
+  <si>
+    <t>Убедиться, что открывается страница с тематическими цитатами нажав на иконку бабочки в правом верхнем углу</t>
+  </si>
+  <si>
+    <t>Убедиться, что цитата разворачивается при нажатии на любую цитату на странице с тематическими цитатами</t>
+  </si>
+  <si>
+    <t>Убедиться, что цитата сворачивается при нажатии на стрелочку на против любой цитаты на странице с тематическими цитатами</t>
+  </si>
+  <si>
+    <t>Убедиться, что цитата разворачивается при нажатии на стрелочку на против любой цитаты на странице с тематическими цитатами</t>
+  </si>
+  <si>
+    <t>Убедиться, что цитата сворачивается при нажатии на любую цитату на странице с тематическими цитатами</t>
+  </si>
+  <si>
+    <t>Проверить, что при нажатии на иконку профиля появляется кнопка "Выйти"</t>
+  </si>
+  <si>
+    <t>Проверить, что при нажатии на кнопку "Выйти" производится выход из учетной записи и появляется страница авторизации</t>
+  </si>
+  <si>
+    <t>Убедиться, что происходит переход на страницу информации о приложении через меню в левом вверхнем углу выбрав раздел "О приложении"</t>
+  </si>
+  <si>
+    <t>Проверить работоспособность ссылки "Политика конфиденциальности"</t>
+  </si>
+  <si>
+    <t>Проверить работоспособность ссылки "Пользовательское соглашение"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,9 +304,17 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -220,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -426,11 +550,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -444,32 +664,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -481,8 +722,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="3" xr:uid="{C3E02FDE-381C-475F-A8A3-727C32CCBAC8}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{02561D45-1DBC-484C-9807-7F7FF6C765DB}"/>
+    <cellStyle name="Обычный 4" xfId="1" xr:uid="{9C747DCE-FB62-4513-AC90-CD2815A829EC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -760,397 +1004,903 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.5546875" customWidth="1"/>
-    <col min="2" max="2" width="89.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="110.5546875" style="13" customWidth="1"/>
+    <col min="3" max="4" width="11.21875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="D1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="22"/>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="22"/>
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="22"/>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D24" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="22"/>
+      <c r="B25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+      <c r="B26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="22"/>
+      <c r="B27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="22"/>
+      <c r="B29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
+      <c r="B30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="22"/>
+      <c r="B31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="22"/>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="22"/>
+      <c r="B34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="22"/>
+      <c r="B35" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="22"/>
+      <c r="B36" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="22"/>
+      <c r="B37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="22"/>
+      <c r="B38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="22"/>
+      <c r="B39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="22"/>
+      <c r="B40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="22"/>
+      <c r="B41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="22"/>
+      <c r="B42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="22"/>
+      <c r="B43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="23"/>
+      <c r="B44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="22"/>
+      <c r="B46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="22"/>
+      <c r="B47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="22"/>
+      <c r="B48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="22"/>
+      <c r="B49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="22"/>
+      <c r="B50" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="22"/>
+      <c r="B51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="22"/>
+      <c r="B52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="22"/>
+      <c r="B53" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="22"/>
+      <c r="B55" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="22"/>
+      <c r="B56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="22"/>
+      <c r="B57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="22"/>
+      <c r="B58" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="22"/>
+      <c r="B60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="22"/>
+      <c r="B62" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="22"/>
+      <c r="B63" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="22"/>
+      <c r="B64" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="23"/>
+      <c r="B65" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="2" t="s">
+      <c r="B66" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="2" t="s">
+      <c r="C66" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="20"/>
+      <c r="B67" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
-      <c r="B8" s="2" t="s">
+      <c r="C67" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="20"/>
+      <c r="B68" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="20"/>
+      <c r="B69" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="2" t="s">
+      <c r="C69" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="20"/>
+      <c r="B70" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="2" t="s">
+      <c r="C70" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="20"/>
+      <c r="B71" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="16"/>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
-      <c r="B30" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="15"/>
-      <c r="B32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="15"/>
-      <c r="B34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="15"/>
-      <c r="B36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
-      <c r="B38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="16"/>
-      <c r="B39" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>4</v>
+      <c r="C71" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A22:A32"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
+  <mergeCells count="9">
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="A45:A53"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="A32:A44"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
